--- a/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3625.606253320109</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9245.672242045401</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4857.555427597101</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20742.651805824</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>3265.068099260883</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>4841.583959004839</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2717.78920307411</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6051.903283656296</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25779.12173248233</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>38660.38994671917</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>5547.692587677884</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>4680.807935426745</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3540.239342542912</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>9372.087664937855</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38771.43301033976</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57331.67885944174</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>10086.86941599635</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>7669.812218308174</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>494.1844686420247</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1551.956292866974</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>408.0947270140496</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7459.284356187091</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>141658.8783675739</v>
+        <v>299704.4631501978</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661783</v>
+        <v>80959.25712661508</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>185698.8309555444</v>
+        <v>137380.0533864</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>222339.22616268</v>
+        <v>544167.6749186649</v>
       </c>
       <c r="M2" t="n">
-        <v>59341.47448069555</v>
+        <v>105185.79755365</v>
       </c>
       <c r="N2" t="n">
-        <v>61224.98266792515</v>
+        <v>74485.31324975</v>
       </c>
       <c r="O2" t="n">
-        <v>35859.81040100641</v>
+        <v>69751.74511219776</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41969.16811767176</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>30989.10837094656</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>304054.7384676386</v>
+        <v>174985.2376912842</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>107969.5164051771</v>
+        <v>84130.36061356185</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>845259.3450839561</v>
+        <v>254289.8928373864</v>
       </c>
       <c r="M2" t="n">
-        <v>182935.4107019823</v>
+        <v>57652.86355149752</v>
       </c>
       <c r="N2" t="n">
-        <v>125609.5457212816</v>
+        <v>18281.46963271983</v>
       </c>
       <c r="O2" t="n">
-        <v>54169.42484302893</v>
+        <v>12272.96065407986</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36942.47720744312</v>
+        <v>14953.1406888776</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>27838.01358755999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>583401.3887610467</v>
+        <v>134822.9876430769</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>488772.2294021218</v>
+        <v>177722.4810426615</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>806894.2926954633</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>442480.4913916666</v>
+        <v>46770.05078559003</v>
       </c>
       <c r="N2" t="n">
-        <v>116463.5174429298</v>
+        <v>43254.21931341562</v>
       </c>
       <c r="O2" t="n">
-        <v>169065.6337245199</v>
+        <v>46134.51516010787</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>299704.4631501978</v>
+        <v>299457.1989099024</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661508</v>
+        <v>80959.25712661653</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>137380.0533864</v>
+        <v>136981.2725754988</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>544167.6749186649</v>
+        <v>540337.8794259601</v>
       </c>
       <c r="M2" t="n">
-        <v>105185.79755365</v>
+        <v>105561.3095757</v>
       </c>
       <c r="N2" t="n">
-        <v>74485.31324975</v>
+        <v>75634.14130920739</v>
       </c>
       <c r="O2" t="n">
-        <v>69751.74511219776</v>
+        <v>75817.64920437815</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30989.10837094656</v>
+        <v>42918.32072666658</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>174985.2376912842</v>
+        <v>281775.2215551065</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>84130.36061356185</v>
+        <v>134723.1329735118</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>254289.8928373864</v>
+        <v>410592.6555366496</v>
       </c>
       <c r="M2" t="n">
-        <v>57652.86355149752</v>
+        <v>100773.5540459725</v>
       </c>
       <c r="N2" t="n">
-        <v>18281.46963271983</v>
+        <v>32503.43204176008</v>
       </c>
       <c r="O2" t="n">
-        <v>12272.96065407986</v>
+        <v>20101.74547350489</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14953.1406888776</v>
+        <v>15243.27458338266</v>
       </c>
       <c r="B2" t="n">
-        <v>27838.01358755999</v>
+        <v>28182.92772446093</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>134822.9876430769</v>
+        <v>138653.2715386877</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>177722.4810426615</v>
+        <v>172494.5760716226</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46770.05078559003</v>
+        <v>30391.66382300033</v>
       </c>
       <c r="N2" t="n">
-        <v>43254.21931341562</v>
+        <v>49794.70591665693</v>
       </c>
       <c r="O2" t="n">
-        <v>46134.51516010787</v>
+        <v>55798.41569072519</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7459.284356187091</v>
+        <v>39031.8168025792</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>480246.8820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>141658.8783675739</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95787.21511094</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661783</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>185698.8309555444</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>222339.22616268</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>59341.47448069555</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>61224.98266792515</v>
+        <v>24790.01698851404</v>
       </c>
       <c r="O2" t="n">
-        <v>35859.81040100641</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41969.16811767176</v>
+        <v>38474.227542434</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1449739.865999208</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>304054.7384676386</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>68781.60553734945</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48766.68152149498</v>
       </c>
       <c r="I2" t="n">
-        <v>107969.5164051771</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>845259.3450839561</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>182935.4107019823</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>125609.5457212816</v>
+        <v>61595.36923039746</v>
       </c>
       <c r="O2" t="n">
-        <v>54169.42484302893</v>
+        <v>37387.51309567104</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36942.47720744312</v>
+        <v>192739.0887555324</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>993010.8231553335</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>583401.3887610467</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8362.158153921473</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41828.18095705221</v>
       </c>
       <c r="I2" t="n">
-        <v>488772.2294021218</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>806894.2926954633</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>442480.4913916666</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>116463.5174429298</v>
+        <v>52911.02090087647</v>
       </c>
       <c r="O2" t="n">
-        <v>169065.6337245199</v>
+        <v>39123.60766563576</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>299457.1989099024</v>
+        <v>299457.1989099013</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661653</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136981.2725754988</v>
+        <v>136981.2725754989</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>105561.3095757</v>
       </c>
       <c r="N2" t="n">
-        <v>75634.14130920739</v>
+        <v>75634.14130920777</v>
       </c>
       <c r="O2" t="n">
-        <v>75817.64920437815</v>
+        <v>75817.64920437813</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>281775.2215551065</v>
+        <v>281775.2215551073</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>410592.6555366496</v>
+        <v>410592.6555366498</v>
       </c>
       <c r="M2" t="n">
         <v>100773.5540459725</v>
       </c>
       <c r="N2" t="n">
-        <v>32503.43204176008</v>
+        <v>32503.43204175928</v>
       </c>
       <c r="O2" t="n">
         <v>20101.74547350489</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15243.27458338266</v>
+        <v>15243.27458338254</v>
       </c>
       <c r="B2" t="n">
         <v>28182.92772446093</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>138653.2715386877</v>
+        <v>138653.2715386878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>30391.66382300033</v>
+        <v>30391.66382300043</v>
       </c>
       <c r="N2" t="n">
-        <v>49794.70591665693</v>
+        <v>49794.70591665703</v>
       </c>
       <c r="O2" t="n">
-        <v>55798.41569072519</v>
+        <v>55798.41569072554</v>
       </c>
     </row>
   </sheetData>

--- a/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
+++ b/results/[15_ambitious_co2_pricing]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
